--- a/auxi/map2.xlsx
+++ b/auxi/map2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\aguila\auxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C0A6F3-8A19-40C1-BD9F-323F28EF567A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD51A61-8A27-4C7E-B672-DE0266E342D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="2500" windowWidth="15580" windowHeight="11740" xr2:uid="{0DDA3FFA-C40A-49D1-A7DC-9AB00013439C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{0DDA3FFA-C40A-49D1-A7DC-9AB00013439C}"/>
   </bookViews>
   <sheets>
     <sheet name="varsdrop" sheetId="3" r:id="rId1"/>
-    <sheet name="country_var" sheetId="4" r:id="rId2"/>
+    <sheet name="growth_vars" sheetId="5" r:id="rId2"/>
+    <sheet name="country_var" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>ICT service exports (% of service exports, BoP)</t>
   </si>
@@ -151,6 +152,12 @@
   </si>
   <si>
     <t>drop2</t>
+  </si>
+  <si>
+    <t>Inflows FDI</t>
+  </si>
+  <si>
+    <t>vars</t>
   </si>
 </sst>
 </file>
@@ -556,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6537C291-91A5-4511-9EEE-4A0D71ED7397}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C25" sqref="C25:C26"/>
     </sheetView>
   </sheetViews>
@@ -859,6 +866,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545D5391-A4E7-49D5-8F42-68B1BD568C2C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD2C94E-20A6-4C89-A021-37E9913C7CCF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
